--- a/pred_ohlcv/54_21/2020-01-16 WAXP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WAXP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-225090.4165000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-196483.7315000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-176209.9871000001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-175862.6012000001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-236649.5913000001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-216053.5913000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-180580.5914823601</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-410451.0313</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-631173.3628</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-643053.2766</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-616684.6257</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-607517.1155</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-607517.1155</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-607517.1155</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-607517.1155</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-558280.1155</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-558280.1155</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-558280.1155</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-518124.96256583</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-527124.96256583</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-527124.96256583</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-527124.96256583</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-527124.96256583</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-387008.0113520999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-470030.9767520999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-608141.6748521</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-612141.6748521</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-610141.6748521</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-610141.6748521</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-610241.6748521</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-614737.8050521</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-612737.8050521</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-631044.9627521</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-621703.3518521</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-621703.3518521</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-622071.7226521</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-652071.7226521</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-650884.1099521</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-650884.1099521</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-601017.61158745</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-602871.61158745</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-602871.61158745</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-602871.61158745</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-607871.61158745</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-607871.61158745</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-671671.61158745</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-664780.61158745</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-695080.61158745</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-697525.26103394</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-697525.26103394</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-693924.63883394</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-606464.22858043</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-598544.60058043</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-578737.54718043</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-578737.54718043</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-512187.27618043</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-524187.27618043</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-544515.0684804301</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 WAXP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WAXP ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-176209.9871000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-175862.6012000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-236649.5913000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-216053.5913000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-180580.5914823601</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-410451.0313</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-410428.0313</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-289320.9272521</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-317518.9272521</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-320518.9272521</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-332518.9272521</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-470030.9767520999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-566586.5074520999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-612141.6748521</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-650884.1099521</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-601017.61158745</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-602871.61158745</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-607871.61158745</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-607871.61158745</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-671671.61158745</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-664780.61158745</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-695080.61158745</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-697525.26103394</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-693924.63883394</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-606464.22858043</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-598544.60058043</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-578737.54718043</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-578737.54718043</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-512187.27618043</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-512187.27618043</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-524187.27618043</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-524187.27618043</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-544515.0684804301</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-532109.44178043</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-520109.44178043</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-509627.0710804301</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-509627.0710804301</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-509627.0710804301</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-529408.6058804301</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-559266.1740804301</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-559049.9337804301</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-605872.7617804301</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-674086.1587804301</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-674086.1587804301</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-674086.1587804301</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-673586.1587804301</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-673586.1587804301</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-673611.1587804301</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
